--- a/ProductsCount.xlsx
+++ b/ProductsCount.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="272">
   <si>
     <t>CVR</t>
   </si>
@@ -32,6 +32,12 @@
     <t>Opsagt dato:</t>
   </si>
   <si>
+    <t>Årsag</t>
+  </si>
+  <si>
+    <t>Ny leverandør</t>
+  </si>
+  <si>
     <t>TCV_range</t>
   </si>
   <si>
@@ -512,6 +518,63 @@
     <t>-</t>
   </si>
   <si>
+    <t>Anden årsag (angiv hvilken i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Bruger ikke produktet</t>
+  </si>
+  <si>
+    <t>Ikke oplyst</t>
+  </si>
+  <si>
+    <t>Utilfredshed (Ventetid på telefon)</t>
+  </si>
+  <si>
+    <t>Utilfredshed (Service - uddyb i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Systemet (uddyb i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Virksomheden lukker</t>
+  </si>
+  <si>
+    <t>Strategisk beslutning</t>
+  </si>
+  <si>
+    <t>Pris</t>
+  </si>
+  <si>
+    <t>Fusionerer med anden virksomhed</t>
+  </si>
+  <si>
+    <t>Ikke flere medarbejdere i virksomheden</t>
+  </si>
+  <si>
+    <t>Outsourcing af lønnen (anden leverandør)</t>
+  </si>
+  <si>
+    <t>Insourcing af lønnen (anden leverandør)</t>
+  </si>
+  <si>
+    <t>Intect</t>
+  </si>
+  <si>
+    <t>Corp System</t>
+  </si>
+  <si>
+    <t>Lessor</t>
+  </si>
+  <si>
+    <t>Zenegy</t>
+  </si>
+  <si>
+    <t>DataLøn</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
     <t>60000-80000</t>
   </si>
   <si>
@@ -753,6 +816,18 @@
   </si>
   <si>
     <t>Visma Løn og Leder/medarbejdermodul</t>
+  </si>
+  <si>
+    <t>Covid-19</t>
+  </si>
+  <si>
+    <t>Konkurs</t>
+  </si>
+  <si>
+    <t>Vil ikke oplyse</t>
+  </si>
+  <si>
+    <t>Danløn</t>
   </si>
   <si>
     <t>180000-200000</t>
@@ -1117,13 +1192,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,10 +1223,16 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -1160,24 +1241,27 @@
         <v>78556.39999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2">
         <v>44200</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="H2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -1186,24 +1270,27 @@
         <v>15000</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E3" s="2">
         <v>44300</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>2021</v>
@@ -1212,7 +1299,7 @@
         <v>109548</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E4" s="2">
         <v>44344</v>
@@ -1220,16 +1307,19 @@
       <c r="F4" t="s">
         <v>167</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
       <c r="H4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -1238,24 +1328,27 @@
         <v>74992</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E5" s="2">
         <v>44347</v>
       </c>
       <c r="F5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>2021</v>
@@ -1264,24 +1357,27 @@
         <v>109791.88</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E6" s="2">
         <v>44347</v>
       </c>
       <c r="F6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>2021</v>
@@ -1290,7 +1386,7 @@
         <v>24096</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E7" s="2">
         <v>44350</v>
@@ -1298,16 +1394,19 @@
       <c r="F7" t="s">
         <v>168</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
       <c r="H7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>2021</v>
@@ -1316,24 +1415,27 @@
         <v>32894</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E8" s="2">
         <v>44363</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>2021</v>
@@ -1342,7 +1444,7 @@
         <v>90898.60000000001</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E9" s="2">
         <v>44348</v>
@@ -1350,16 +1452,22 @@
       <c r="F9" t="s">
         <v>169</v>
       </c>
-      <c r="G9">
-        <v>1</v>
+      <c r="G9" t="s">
+        <v>180</v>
       </c>
       <c r="H9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>2021</v>
@@ -1368,24 +1476,27 @@
         <v>79410</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E10" s="2">
         <v>44355</v>
       </c>
       <c r="F10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="H10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>2021</v>
@@ -1394,24 +1505,27 @@
         <v>51608.6</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E11" s="2">
         <v>44368</v>
       </c>
       <c r="F11" t="s">
-        <v>170</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>2021</v>
@@ -1420,24 +1534,27 @@
         <v>49192.74</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E12" s="2">
         <v>44375</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>2021</v>
@@ -1446,24 +1563,30 @@
         <v>47508</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E13" s="2">
         <v>44376</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
+        <v>167</v>
+      </c>
+      <c r="G13" t="s">
+        <v>181</v>
       </c>
       <c r="H13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>2021</v>
@@ -1472,24 +1595,27 @@
         <v>32673</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E14" s="2">
         <v>44375</v>
       </c>
       <c r="F14" t="s">
-        <v>168</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>2021</v>
@@ -1498,24 +1624,27 @@
         <v>48167</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E15" s="2">
         <v>44376</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>2021</v>
@@ -1524,24 +1653,27 @@
         <v>21226.54</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E16" s="2">
         <v>44385</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>2021</v>
@@ -1550,18 +1682,24 @@
         <v>1018113</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E17" s="2">
         <v>44377</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="F17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" t="s">
+        <v>182</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>2021</v>
@@ -1570,7 +1708,7 @@
         <v>145281</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E18" s="2">
         <v>44376</v>
@@ -1578,16 +1716,19 @@
       <c r="F18" t="s">
         <v>171</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
       <c r="H18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>192</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>2021</v>
@@ -1596,18 +1737,21 @@
         <v>437295</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E19" s="2">
         <v>44354</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>2021</v>
@@ -1616,24 +1760,30 @@
         <v>48600</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E20" s="2">
         <v>44371</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>183</v>
       </c>
       <c r="H20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>2021</v>
@@ -1642,24 +1792,27 @@
         <v>27360</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E21" s="2">
         <v>44407</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="H21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>2021</v>
@@ -1668,24 +1821,27 @@
         <v>54307</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E22" s="2">
         <v>44382</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="H22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>2021</v>
@@ -1694,24 +1850,27 @@
         <v>18049.5</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E23" s="2">
         <v>44410</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H23" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>2021</v>
@@ -1720,24 +1879,30 @@
         <v>21660</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E24" s="2">
         <v>44440</v>
       </c>
       <c r="F24" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
+        <v>167</v>
+      </c>
+      <c r="G24" t="s">
+        <v>184</v>
       </c>
       <c r="H24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>2021</v>
@@ -1746,24 +1911,27 @@
         <v>164796</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E25" s="2">
         <v>44432</v>
       </c>
       <c r="F25" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="H25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>193</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>2021</v>
@@ -1772,18 +1940,21 @@
         <v>226636</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E26" s="2">
         <v>44439</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="F26" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>2021</v>
@@ -1792,24 +1963,27 @@
         <v>117341</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E27" s="2">
         <v>44462</v>
       </c>
       <c r="F27" t="s">
-        <v>167</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>2021</v>
@@ -1818,24 +1992,27 @@
         <v>150297</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E28" s="2">
         <v>44461</v>
       </c>
       <c r="F28" t="s">
-        <v>171</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>192</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>2021</v>
@@ -1844,24 +2021,27 @@
         <v>25140.84</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E29" s="2">
         <v>44463</v>
       </c>
       <c r="F29" t="s">
-        <v>168</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>2021</v>
@@ -1870,24 +2050,27 @@
         <v>72578.35000000001</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E30" s="2">
         <v>44463</v>
       </c>
       <c r="F30" t="s">
-        <v>165</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>2021</v>
@@ -1896,24 +2079,27 @@
         <v>30000</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E31" s="2">
         <v>44454</v>
       </c>
       <c r="F31" t="s">
-        <v>168</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>2021</v>
@@ -1922,24 +2108,27 @@
         <v>72674.92</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E32" s="2">
         <v>44469</v>
       </c>
       <c r="F32" t="s">
-        <v>165</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="H32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>2021</v>
@@ -1948,7 +2137,7 @@
         <v>158752.08</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E33" s="2">
         <v>44483</v>
@@ -1956,16 +2145,19 @@
       <c r="F33" t="s">
         <v>171</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
       <c r="H33" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>192</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>2021</v>
@@ -1974,24 +2166,27 @@
         <v>36348</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E34" s="2">
         <v>44463</v>
       </c>
       <c r="F34" t="s">
-        <v>168</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="H34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>2021</v>
@@ -2000,24 +2195,27 @@
         <v>17258.07</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E35" s="2">
         <v>44489</v>
       </c>
       <c r="F35" t="s">
-        <v>166</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="H35" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>2021</v>
@@ -2026,24 +2224,27 @@
         <v>36000</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E36" s="2">
         <v>44438</v>
       </c>
       <c r="F36" t="s">
-        <v>168</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="H36" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -2052,18 +2253,24 @@
         <v>321844</v>
       </c>
       <c r="D37" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E37" s="2">
         <v>44438</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="F37" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" t="s">
+        <v>182</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>2021</v>
@@ -2072,24 +2279,27 @@
         <v>30320</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E38" s="2">
         <v>44483</v>
       </c>
       <c r="F38" t="s">
-        <v>168</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="H38" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>2021</v>
@@ -2098,24 +2308,30 @@
         <v>61133.08</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E39" s="2">
         <v>44498</v>
       </c>
       <c r="F39" t="s">
-        <v>165</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
+        <v>169</v>
+      </c>
+      <c r="G39" t="s">
+        <v>184</v>
       </c>
       <c r="H39" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>2021</v>
@@ -2124,24 +2340,27 @@
         <v>11524</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E40" s="2">
         <v>44503</v>
       </c>
       <c r="F40" t="s">
-        <v>166</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="H40" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B41">
         <v>2021</v>
@@ -2150,24 +2369,27 @@
         <v>35463.96</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E41" s="2">
         <v>44498</v>
       </c>
       <c r="F41" t="s">
-        <v>168</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="H41" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>2021</v>
@@ -2176,24 +2398,27 @@
         <v>18103.47</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E42" s="2">
         <v>44523</v>
       </c>
       <c r="F42" t="s">
-        <v>166</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>2021</v>
@@ -2202,24 +2427,30 @@
         <v>21375.84</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E43" s="2">
         <v>44505</v>
       </c>
       <c r="F43" t="s">
-        <v>168</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
+        <v>169</v>
+      </c>
+      <c r="G43" t="s">
+        <v>184</v>
       </c>
       <c r="H43" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <v>2021</v>
@@ -2228,18 +2459,21 @@
         <v>387640</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E44" s="2">
         <v>44467</v>
       </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="F44" t="s">
+        <v>172</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>2021</v>
@@ -2248,24 +2482,27 @@
         <v>65365</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E45" s="2">
         <v>44530</v>
       </c>
       <c r="F45" t="s">
-        <v>165</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H45" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>2021</v>
@@ -2274,24 +2511,27 @@
         <v>59696</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E46" s="2">
         <v>44531</v>
       </c>
       <c r="F46" t="s">
-        <v>170</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H46" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B47">
         <v>2021</v>
@@ -2300,24 +2540,27 @@
         <v>33761</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E47" s="2">
         <v>44545</v>
       </c>
-      <c r="F47" t="s">
-        <v>168</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
+      <c r="G47" t="s">
+        <v>184</v>
       </c>
       <c r="H47" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B48">
         <v>2021</v>
@@ -2326,24 +2569,27 @@
         <v>33034</v>
       </c>
       <c r="D48" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E48" s="2">
         <v>44498</v>
       </c>
       <c r="F48" t="s">
-        <v>168</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H48" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B49">
         <v>2021</v>
@@ -2352,24 +2598,27 @@
         <v>162281</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E49" s="2">
         <v>44530</v>
       </c>
       <c r="F49" t="s">
-        <v>172</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="H49" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>193</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B50">
         <v>2021</v>
@@ -2378,24 +2627,27 @@
         <v>22438</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E50" s="2">
         <v>44546</v>
       </c>
       <c r="F50" t="s">
-        <v>168</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H50" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B51">
         <v>2021</v>
@@ -2404,24 +2656,27 @@
         <v>18120</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E51" s="2">
         <v>44498</v>
       </c>
       <c r="F51" t="s">
-        <v>166</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="H51" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>2021</v>
@@ -2430,24 +2685,27 @@
         <v>37004</v>
       </c>
       <c r="D52" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E52" s="2">
         <v>44550</v>
       </c>
       <c r="F52" t="s">
-        <v>168</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="H52" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B53">
         <v>2021</v>
@@ -2456,24 +2714,27 @@
         <v>55692.36</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E53" s="2">
         <v>44540</v>
       </c>
       <c r="F53" t="s">
-        <v>170</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H53" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B54">
         <v>2021</v>
@@ -2482,24 +2743,27 @@
         <v>58860</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E54" s="2">
         <v>44553</v>
       </c>
       <c r="F54" t="s">
-        <v>170</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="H54" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B55">
         <v>2022</v>
@@ -2508,24 +2772,30 @@
         <v>44529.04</v>
       </c>
       <c r="D55" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E55" s="2">
         <v>44583</v>
       </c>
       <c r="F55" t="s">
-        <v>170</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="G55" t="s">
+        <v>185</v>
       </c>
       <c r="H55" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B56">
         <v>2022</v>
@@ -2534,24 +2804,27 @@
         <v>16357.92</v>
       </c>
       <c r="D56" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E56" s="2">
         <v>44589</v>
       </c>
       <c r="F56" t="s">
-        <v>166</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H56" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>2022</v>
@@ -2560,7 +2833,7 @@
         <v>86395.57000000001</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E57" s="2">
         <v>44592</v>
@@ -2568,16 +2841,22 @@
       <c r="F57" t="s">
         <v>169</v>
       </c>
-      <c r="G57">
-        <v>1</v>
+      <c r="G57" t="s">
+        <v>180</v>
       </c>
       <c r="H57" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B58">
         <v>2022</v>
@@ -2586,24 +2865,27 @@
         <v>65843.74000000001</v>
       </c>
       <c r="D58" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E58" s="2">
         <v>44592</v>
       </c>
       <c r="F58" t="s">
-        <v>165</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="H58" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B59">
         <v>2022</v>
@@ -2612,24 +2894,27 @@
         <v>44071.91</v>
       </c>
       <c r="D59" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E59" s="2">
         <v>44593</v>
       </c>
       <c r="F59" t="s">
-        <v>170</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H59" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B60">
         <v>2022</v>
@@ -2638,24 +2923,27 @@
         <v>18108</v>
       </c>
       <c r="D60" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E60" s="2">
         <v>44594</v>
       </c>
       <c r="F60" t="s">
-        <v>166</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H60" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>2022</v>
@@ -2664,24 +2952,27 @@
         <v>123510</v>
       </c>
       <c r="D61" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E61" s="2">
         <v>44594</v>
       </c>
       <c r="F61" t="s">
-        <v>173</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H61" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B62">
         <v>2022</v>
@@ -2690,24 +2981,27 @@
         <v>27046.56</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E62" s="2">
         <v>44601</v>
       </c>
       <c r="F62" t="s">
-        <v>168</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H62" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B63">
         <v>2022</v>
@@ -2716,24 +3010,27 @@
         <v>78090</v>
       </c>
       <c r="D63" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E63" s="2">
         <v>44602</v>
       </c>
       <c r="F63" t="s">
-        <v>165</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="H63" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B64">
         <v>2022</v>
@@ -2742,24 +3039,27 @@
         <v>26775.27</v>
       </c>
       <c r="D64" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E64" s="2">
         <v>44609</v>
       </c>
       <c r="F64" t="s">
-        <v>168</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="H64" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B65">
         <v>2022</v>
@@ -2768,24 +3068,27 @@
         <v>21714.47</v>
       </c>
       <c r="D65" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E65" s="2">
         <v>44615</v>
       </c>
       <c r="F65" t="s">
-        <v>168</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="H65" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B66">
         <v>2022</v>
@@ -2794,24 +3097,27 @@
         <v>79981.99000000001</v>
       </c>
       <c r="D66" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E66" s="2">
         <v>44617</v>
       </c>
       <c r="F66" t="s">
-        <v>165</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H66" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
         <v>2022</v>
@@ -2820,24 +3126,27 @@
         <v>73747</v>
       </c>
       <c r="D67" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E67" s="2">
         <v>44617</v>
       </c>
       <c r="F67" t="s">
-        <v>165</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H67" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
         <v>2022</v>
@@ -2846,24 +3155,27 @@
         <v>22255.93</v>
       </c>
       <c r="D68" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E68" s="2">
         <v>44620</v>
       </c>
       <c r="F68" t="s">
-        <v>168</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="H68" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
         <v>2022</v>
@@ -2872,24 +3184,27 @@
         <v>12087</v>
       </c>
       <c r="D69" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E69" s="2">
         <v>44620</v>
       </c>
       <c r="F69" t="s">
-        <v>166</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H69" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>2022</v>
@@ -2898,24 +3213,27 @@
         <v>153000</v>
       </c>
       <c r="D70" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E70" s="2">
         <v>44631</v>
       </c>
       <c r="F70" t="s">
-        <v>171</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="H70" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>192</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
         <v>2022</v>
@@ -2924,24 +3242,27 @@
         <v>4467</v>
       </c>
       <c r="D71" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E71" s="2">
         <v>44634</v>
       </c>
       <c r="F71" t="s">
-        <v>166</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="H71" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
         <v>2022</v>
@@ -2950,24 +3271,27 @@
         <v>46500</v>
       </c>
       <c r="D72" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E72" s="2">
         <v>44637</v>
       </c>
       <c r="F72" t="s">
-        <v>170</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="H72" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
         <v>2022</v>
@@ -2976,24 +3300,27 @@
         <v>113561</v>
       </c>
       <c r="D73" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E73" s="2">
         <v>44643</v>
       </c>
       <c r="F73" t="s">
-        <v>167</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H73" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
         <v>2022</v>
@@ -3002,18 +3329,21 @@
         <v>264132</v>
       </c>
       <c r="D74" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E74" s="2">
         <v>44645</v>
       </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="F74" t="s">
+        <v>174</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
         <v>2022</v>
@@ -3022,24 +3352,27 @@
         <v>19712.96</v>
       </c>
       <c r="D75" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E75" s="2">
         <v>44649</v>
       </c>
       <c r="F75" t="s">
-        <v>166</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="H75" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
         <v>2022</v>
@@ -3048,24 +3381,27 @@
         <v>5520</v>
       </c>
       <c r="D76" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E76" s="2">
         <v>44652</v>
       </c>
       <c r="F76" t="s">
-        <v>166</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="H76" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
         <v>2022</v>
@@ -3074,24 +3410,30 @@
         <v>15000</v>
       </c>
       <c r="D77" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E77" s="2">
         <v>44655</v>
       </c>
       <c r="F77" t="s">
-        <v>166</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="G77" t="s">
+        <v>184</v>
       </c>
       <c r="H77" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
         <v>2022</v>
@@ -3100,24 +3442,27 @@
         <v>44929.04</v>
       </c>
       <c r="D78" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E78" s="2">
         <v>44655</v>
       </c>
       <c r="F78" t="s">
-        <v>170</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="H78" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>2022</v>
@@ -3126,24 +3471,27 @@
         <v>5500</v>
       </c>
       <c r="D79" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E79" s="2">
         <v>44672</v>
       </c>
       <c r="F79" t="s">
-        <v>166</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="H79" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
         <v>2022</v>
@@ -3152,24 +3500,27 @@
         <v>58657</v>
       </c>
       <c r="D80" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E80" s="2">
         <v>44685</v>
       </c>
       <c r="F80" t="s">
-        <v>170</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="H80" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
         <v>2022</v>
@@ -3178,18 +3529,21 @@
         <v>259880</v>
       </c>
       <c r="D81" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E81" s="2">
         <v>44692</v>
       </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="F81" t="s">
+        <v>174</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>2022</v>
@@ -3198,24 +3552,27 @@
         <v>44851</v>
       </c>
       <c r="D82" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E82" s="2">
         <v>44719</v>
       </c>
       <c r="F82" t="s">
-        <v>170</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="H82" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
         <v>2022</v>
@@ -3224,24 +3581,27 @@
         <v>15000</v>
       </c>
       <c r="D83" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E83" s="2">
         <v>44719</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="H83" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>2022</v>
@@ -3250,24 +3610,27 @@
         <v>36000</v>
       </c>
       <c r="D84" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E84" s="2">
         <v>44732</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="H84" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
         <v>2022</v>
@@ -3276,24 +3639,27 @@
         <v>41918.41</v>
       </c>
       <c r="D85" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E85" s="2">
         <v>44742</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H85" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
         <v>2022</v>
@@ -3302,24 +3668,27 @@
         <v>36000</v>
       </c>
       <c r="D86" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E86" s="2">
         <v>44742</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="H86" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
         <v>2022</v>
@@ -3328,24 +3697,27 @@
         <v>53378.16</v>
       </c>
       <c r="D87" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E87" s="2">
         <v>44749</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H87" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
         <v>2022</v>
@@ -3354,24 +3726,27 @@
         <v>40191.95</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E88" s="2">
         <v>44753</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H88" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
         <v>2022</v>
@@ -3380,24 +3755,30 @@
         <v>33339.71</v>
       </c>
       <c r="D89" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E89" s="2">
         <v>44774</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
+        <v>167</v>
+      </c>
+      <c r="G89" t="s">
+        <v>184</v>
       </c>
       <c r="H89" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
         <v>2022</v>
@@ -3406,24 +3787,27 @@
         <v>12000</v>
       </c>
       <c r="D90" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E90" s="2">
         <v>44775</v>
       </c>
       <c r="F90" t="s">
-        <v>166</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H90" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
         <v>2022</v>
@@ -3432,24 +3816,27 @@
         <v>57060</v>
       </c>
       <c r="D91" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E91" s="2">
         <v>44784</v>
       </c>
       <c r="F91" t="s">
-        <v>170</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="H91" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
         <v>2022</v>
@@ -3458,24 +3845,27 @@
         <v>24581</v>
       </c>
       <c r="D92" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E92" s="2">
         <v>44810</v>
       </c>
       <c r="F92" t="s">
-        <v>168</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H92" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
         <v>2022</v>
@@ -3484,24 +3874,27 @@
         <v>61008</v>
       </c>
       <c r="D93" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E93" s="2">
         <v>44811</v>
       </c>
       <c r="F93" t="s">
-        <v>165</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="H93" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
         <v>2022</v>
@@ -3510,24 +3903,27 @@
         <v>108824</v>
       </c>
       <c r="D94" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E94" s="2">
         <v>44816</v>
       </c>
       <c r="F94" t="s">
-        <v>167</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H94" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
         <v>2022</v>
@@ -3536,24 +3932,27 @@
         <v>18449</v>
       </c>
       <c r="D95" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E95" s="2">
         <v>44820</v>
       </c>
       <c r="F95" t="s">
-        <v>166</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="H95" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>2022</v>
@@ -3562,24 +3961,27 @@
         <v>9000</v>
       </c>
       <c r="D96" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E96" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F96" t="s">
-        <v>166</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="H96" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>2022</v>
@@ -3588,24 +3990,27 @@
         <v>31068</v>
       </c>
       <c r="D97" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E97" s="2">
         <v>44831</v>
       </c>
       <c r="F97" t="s">
-        <v>168</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H97" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
         <v>2022</v>
@@ -3614,24 +4019,27 @@
         <v>48312</v>
       </c>
       <c r="D98" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E98" s="2">
         <v>44833</v>
       </c>
       <c r="F98" t="s">
-        <v>170</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="H98" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>2022</v>
@@ -3640,18 +4048,21 @@
         <v>310116</v>
       </c>
       <c r="D99" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E99" s="2">
         <v>44823</v>
       </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="F99" t="s">
+        <v>168</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>2022</v>
@@ -3660,24 +4071,30 @@
         <v>145870</v>
       </c>
       <c r="D100" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E100" s="2">
         <v>44834</v>
       </c>
       <c r="F100" t="s">
-        <v>171</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
+        <v>169</v>
+      </c>
+      <c r="G100" t="s">
+        <v>184</v>
       </c>
       <c r="H100" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>192</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
         <v>2022</v>
@@ -3686,24 +4103,27 @@
         <v>61182</v>
       </c>
       <c r="D101" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E101" s="2">
         <v>44858</v>
       </c>
       <c r="F101" t="s">
-        <v>165</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="H101" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>2022</v>
@@ -3712,24 +4132,27 @@
         <v>15360</v>
       </c>
       <c r="D102" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E102" s="2">
         <v>44852</v>
       </c>
       <c r="F102" t="s">
-        <v>166</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="H102" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>2022</v>
@@ -3738,24 +4161,27 @@
         <v>17098</v>
       </c>
       <c r="D103" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E103" s="2">
         <v>44861</v>
       </c>
       <c r="F103" t="s">
-        <v>166</v>
-      </c>
-      <c r="G103">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="H103" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>2022</v>
@@ -3764,24 +4190,27 @@
         <v>47117</v>
       </c>
       <c r="D104" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E104" s="2">
         <v>44862</v>
       </c>
       <c r="F104" t="s">
-        <v>170</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="H104" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B105">
         <v>2022</v>
@@ -3790,24 +4219,27 @@
         <v>16796</v>
       </c>
       <c r="D105" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E105" s="2">
         <v>44865</v>
       </c>
       <c r="F105" t="s">
-        <v>166</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="H105" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B106">
         <v>2022</v>
@@ -3816,24 +4248,27 @@
         <v>30806</v>
       </c>
       <c r="D106" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E106" s="2">
         <v>44868</v>
       </c>
       <c r="F106" t="s">
-        <v>168</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H106" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B107">
         <v>2022</v>
@@ -3842,24 +4277,27 @@
         <v>15000</v>
       </c>
       <c r="D107" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E107" s="2">
         <v>44837</v>
       </c>
       <c r="F107" t="s">
-        <v>166</v>
-      </c>
-      <c r="G107">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="H107" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B108">
         <v>2022</v>
@@ -3868,7 +4306,7 @@
         <v>20172</v>
       </c>
       <c r="D108" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E108" s="2">
         <v>44873</v>
@@ -3876,16 +4314,19 @@
       <c r="F108" t="s">
         <v>168</v>
       </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
       <c r="H108" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B109">
         <v>2022</v>
@@ -3894,18 +4335,24 @@
         <v>1033505</v>
       </c>
       <c r="D109" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E109" s="2">
         <v>44891</v>
       </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="F109" t="s">
+        <v>176</v>
+      </c>
+      <c r="G109" t="s">
+        <v>183</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B110">
         <v>2022</v>
@@ -3914,24 +4361,27 @@
         <v>44550</v>
       </c>
       <c r="D110" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E110" s="2">
         <v>44894</v>
       </c>
       <c r="F110" t="s">
-        <v>170</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="H110" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B111">
         <v>2022</v>
@@ -3940,24 +4390,27 @@
         <v>50482.04</v>
       </c>
       <c r="D111" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E111" s="2">
         <v>44831</v>
       </c>
       <c r="F111" t="s">
-        <v>170</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="H111" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B112">
         <v>2022</v>
@@ -3966,24 +4419,27 @@
         <v>3432</v>
       </c>
       <c r="D112" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E112" s="2">
         <v>44895</v>
       </c>
       <c r="F112" t="s">
-        <v>166</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="H112" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B113">
         <v>2022</v>
@@ -3992,24 +4448,27 @@
         <v>24000</v>
       </c>
       <c r="D113" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E113" s="2">
         <v>44895</v>
       </c>
       <c r="F113" t="s">
-        <v>168</v>
-      </c>
-      <c r="G113">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="H113" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B114">
         <v>2022</v>
@@ -4018,24 +4477,27 @@
         <v>6072</v>
       </c>
       <c r="D114" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E114" s="2">
         <v>44915</v>
       </c>
       <c r="F114" t="s">
-        <v>166</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H114" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B115">
         <v>2022</v>
@@ -4044,7 +4506,7 @@
         <v>90042.39999999999</v>
       </c>
       <c r="D115" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E115" s="2">
         <v>44916</v>
@@ -4052,16 +4514,22 @@
       <c r="F115" t="s">
         <v>169</v>
       </c>
-      <c r="G115">
-        <v>1</v>
+      <c r="G115" t="s">
+        <v>183</v>
       </c>
       <c r="H115" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B116">
         <v>2023</v>
@@ -4070,24 +4538,27 @@
         <v>4512</v>
       </c>
       <c r="D116" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E116" s="2">
         <v>44928</v>
       </c>
       <c r="F116" t="s">
-        <v>166</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H116" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B117">
         <v>2023</v>
@@ -4096,24 +4567,30 @@
         <v>52852.17</v>
       </c>
       <c r="D117" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E117" s="2">
         <v>44936</v>
       </c>
       <c r="F117" t="s">
-        <v>170</v>
-      </c>
-      <c r="G117">
-        <v>1</v>
+        <v>169</v>
+      </c>
+      <c r="G117" t="s">
+        <v>184</v>
       </c>
       <c r="H117" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B118">
         <v>2023</v>
@@ -4122,24 +4599,27 @@
         <v>6137</v>
       </c>
       <c r="D118" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E118" s="2">
         <v>44951</v>
       </c>
       <c r="F118" t="s">
-        <v>166</v>
-      </c>
-      <c r="G118">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H118" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B119">
         <v>2023</v>
@@ -4148,24 +4628,27 @@
         <v>128134</v>
       </c>
       <c r="D119" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E119" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F119" t="s">
-        <v>173</v>
-      </c>
-      <c r="G119">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="H119" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B120">
         <v>2023</v>
@@ -4174,24 +4657,27 @@
         <v>32723</v>
       </c>
       <c r="D120" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E120" s="2">
         <v>44956</v>
       </c>
       <c r="F120" t="s">
-        <v>168</v>
-      </c>
-      <c r="G120">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="H120" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B121">
         <v>2023</v>
@@ -4200,24 +4686,27 @@
         <v>6564</v>
       </c>
       <c r="D121" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E121" s="2">
         <v>44979</v>
       </c>
       <c r="F121" t="s">
-        <v>166</v>
-      </c>
-      <c r="G121">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="H121" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B122">
         <v>2023</v>
@@ -4226,24 +4715,27 @@
         <v>160611</v>
       </c>
       <c r="D122" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E122" s="2">
         <v>45014</v>
       </c>
       <c r="F122" t="s">
-        <v>172</v>
-      </c>
-      <c r="G122">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H122" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>193</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B123">
         <v>2023</v>
@@ -4252,24 +4744,27 @@
         <v>58165</v>
       </c>
       <c r="D123" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E123" s="2">
         <v>45009</v>
       </c>
       <c r="F123" t="s">
-        <v>170</v>
-      </c>
-      <c r="G123">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="H123" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B124">
         <v>2023</v>
@@ -4278,24 +4773,27 @@
         <v>4513</v>
       </c>
       <c r="D124" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E124" s="2">
         <v>45027</v>
       </c>
       <c r="F124" t="s">
-        <v>166</v>
-      </c>
-      <c r="G124">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="H124" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B125">
         <v>2023</v>
@@ -4304,24 +4802,27 @@
         <v>132194</v>
       </c>
       <c r="D125" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E125" s="2">
         <v>45035</v>
       </c>
       <c r="F125" t="s">
-        <v>173</v>
-      </c>
-      <c r="G125">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H125" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B126">
         <v>2023</v>
@@ -4330,24 +4831,27 @@
         <v>32046.79</v>
       </c>
       <c r="D126" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E126" s="2">
         <v>45043</v>
       </c>
       <c r="F126" t="s">
-        <v>168</v>
-      </c>
-      <c r="G126">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="H126" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B127">
         <v>2023</v>
@@ -4356,24 +4860,27 @@
         <v>110646</v>
       </c>
       <c r="D127" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E127" s="2">
         <v>45047</v>
       </c>
       <c r="F127" t="s">
-        <v>167</v>
-      </c>
-      <c r="G127">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H127" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B128">
         <v>2023</v>
@@ -4382,24 +4889,27 @@
         <v>71077.63</v>
       </c>
       <c r="D128" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E128" s="2">
         <v>45047</v>
       </c>
       <c r="F128" t="s">
-        <v>165</v>
-      </c>
-      <c r="G128">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H128" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B129">
         <v>2023</v>
@@ -4408,24 +4918,27 @@
         <v>18378</v>
       </c>
       <c r="D129" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E129" s="2">
         <v>45048</v>
       </c>
       <c r="F129" t="s">
-        <v>166</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="H129" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B130">
         <v>2023</v>
@@ -4434,24 +4947,27 @@
         <v>171628</v>
       </c>
       <c r="D130" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E130" s="2">
         <v>45043</v>
       </c>
       <c r="F130" t="s">
-        <v>172</v>
-      </c>
-      <c r="G130">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="H130" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>193</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B131">
         <v>2023</v>
@@ -4460,18 +4976,21 @@
         <v>303577</v>
       </c>
       <c r="D131" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E131" s="2">
         <v>45020</v>
       </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="F131" t="s">
+        <v>174</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B132">
         <v>2023</v>
@@ -4480,24 +4999,27 @@
         <v>6277</v>
       </c>
       <c r="D132" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E132" s="2">
         <v>45048</v>
       </c>
       <c r="F132" t="s">
-        <v>166</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H132" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B133">
         <v>2023</v>
@@ -4506,24 +5028,27 @@
         <v>125865</v>
       </c>
       <c r="D133" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E133" s="2">
         <v>45044</v>
       </c>
       <c r="F133" t="s">
-        <v>173</v>
-      </c>
-      <c r="G133">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="H133" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B134">
         <v>2023</v>
@@ -4532,18 +5057,21 @@
         <v>236370</v>
       </c>
       <c r="D134" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E134" s="2">
         <v>45043</v>
       </c>
-      <c r="G134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="F134" t="s">
+        <v>167</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B135">
         <v>2023</v>
@@ -4552,24 +5080,27 @@
         <v>30453</v>
       </c>
       <c r="D135" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E135" s="2">
         <v>45070</v>
       </c>
       <c r="F135" t="s">
-        <v>168</v>
-      </c>
-      <c r="G135">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="H135" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B136">
         <v>2023</v>
@@ -4578,24 +5109,27 @@
         <v>76044</v>
       </c>
       <c r="D136" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E136" s="2">
         <v>45072</v>
       </c>
       <c r="F136" t="s">
-        <v>165</v>
-      </c>
-      <c r="G136">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H136" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B137">
         <v>2023</v>
@@ -4604,24 +5138,27 @@
         <v>57600</v>
       </c>
       <c r="D137" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E137" s="2">
         <v>45072</v>
       </c>
       <c r="F137" t="s">
-        <v>170</v>
-      </c>
-      <c r="G137">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="H137" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B138">
         <v>2023</v>
@@ -4630,19 +5167,22 @@
         <v>80135</v>
       </c>
       <c r="D138" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E138" s="2">
         <v>45076</v>
       </c>
       <c r="F138" t="s">
-        <v>169</v>
-      </c>
-      <c r="G138">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="H138" t="s">
-        <v>169</v>
+        <v>190</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4652,13 +5192,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4683,10 +5223,16 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -4695,24 +5241,30 @@
         <v>77346.97</v>
       </c>
       <c r="D2" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E2" s="2">
         <v>44208</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2">
+        <v>178</v>
+      </c>
+      <c r="G2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -4721,24 +5273,27 @@
         <v>52126.72</v>
       </c>
       <c r="D3" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E3" s="2">
         <v>44209</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3">
+        <v>174</v>
+      </c>
+      <c r="H3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="B4">
         <v>2021</v>
@@ -4747,24 +5302,27 @@
         <v>13053.78</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E4" s="2">
         <v>44224</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4">
+        <v>175</v>
+      </c>
+      <c r="H4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -4773,24 +5331,27 @@
         <v>28895.99</v>
       </c>
       <c r="D5" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E5" s="2">
         <v>44202</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G5">
+        <v>169</v>
+      </c>
+      <c r="H5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B6">
         <v>2021</v>
@@ -4799,24 +5360,27 @@
         <v>36113.01</v>
       </c>
       <c r="D6" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E6" s="2">
         <v>44218</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
-      </c>
-      <c r="G6">
+        <v>177</v>
+      </c>
+      <c r="H6" t="s">
+        <v>189</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="H6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B7">
         <v>2021</v>
@@ -4825,24 +5389,30 @@
         <v>50524.99</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E7" s="2">
         <v>44217</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G7">
+        <v>178</v>
+      </c>
+      <c r="G7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="J7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="B8">
         <v>2021</v>
@@ -4851,24 +5421,30 @@
         <v>39790.38</v>
       </c>
       <c r="D8" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E8" s="2">
         <v>44228</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G8">
+        <v>175</v>
+      </c>
+      <c r="G8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="H8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="J8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="B9">
         <v>2021</v>
@@ -4877,24 +5453,30 @@
         <v>59748.16</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E9" s="2">
         <v>44229</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G9">
+        <v>174</v>
+      </c>
+      <c r="G9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I9">
         <v>2</v>
       </c>
-      <c r="H9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="J9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="B10">
         <v>2021</v>
@@ -4903,24 +5485,30 @@
         <v>20969.32</v>
       </c>
       <c r="D10" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E10" s="2">
         <v>44267</v>
       </c>
       <c r="F10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G10">
+        <v>175</v>
+      </c>
+      <c r="G10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" t="s">
+        <v>189</v>
+      </c>
+      <c r="I10">
         <v>2</v>
       </c>
-      <c r="H10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="J10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="B11">
         <v>2021</v>
@@ -4929,24 +5517,27 @@
         <v>26744.54</v>
       </c>
       <c r="D11" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E11" s="2">
         <v>44260</v>
       </c>
       <c r="F11" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11">
+        <v>169</v>
+      </c>
+      <c r="H11" t="s">
+        <v>189</v>
+      </c>
+      <c r="I11">
         <v>2</v>
       </c>
-      <c r="H11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="J11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="B12">
         <v>2021</v>
@@ -4955,24 +5546,27 @@
         <v>159260.11</v>
       </c>
       <c r="D12" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E12" s="2">
         <v>44265</v>
       </c>
       <c r="F12" t="s">
-        <v>171</v>
-      </c>
-      <c r="G12">
+        <v>176</v>
+      </c>
+      <c r="H12" t="s">
+        <v>192</v>
+      </c>
+      <c r="I12">
         <v>2</v>
       </c>
-      <c r="H12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="J12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="B13">
         <v>2021</v>
@@ -4981,24 +5575,27 @@
         <v>15000</v>
       </c>
       <c r="D13" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E13" s="2">
         <v>44267</v>
       </c>
       <c r="F13" t="s">
-        <v>166</v>
-      </c>
-      <c r="G13">
+        <v>168</v>
+      </c>
+      <c r="H13" t="s">
+        <v>187</v>
+      </c>
+      <c r="I13">
         <v>2</v>
       </c>
-      <c r="H13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="J13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="B14">
         <v>2021</v>
@@ -5007,24 +5604,27 @@
         <v>180204.78</v>
       </c>
       <c r="D14" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E14" s="2">
         <v>44259</v>
       </c>
       <c r="F14" t="s">
-        <v>246</v>
-      </c>
-      <c r="G14">
+        <v>174</v>
+      </c>
+      <c r="H14" t="s">
+        <v>271</v>
+      </c>
+      <c r="I14">
         <v>2</v>
       </c>
-      <c r="H14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="J14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="B15">
         <v>2021</v>
@@ -5033,24 +5633,30 @@
         <v>17060.16</v>
       </c>
       <c r="D15" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E15" s="2">
         <v>44279</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
-      </c>
-      <c r="G15">
+        <v>167</v>
+      </c>
+      <c r="G15" t="s">
+        <v>270</v>
+      </c>
+      <c r="H15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="H15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="J15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="B16">
         <v>2021</v>
@@ -5059,24 +5665,27 @@
         <v>48008.41</v>
       </c>
       <c r="D16" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E16" s="2">
         <v>44279</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
-      </c>
-      <c r="G16">
+        <v>169</v>
+      </c>
+      <c r="H16" t="s">
+        <v>191</v>
+      </c>
+      <c r="I16">
         <v>2</v>
       </c>
-      <c r="H16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B17">
         <v>2021</v>
@@ -5085,24 +5694,30 @@
         <v>14114.21</v>
       </c>
       <c r="D17" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E17" s="2">
         <v>44293</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
-      </c>
-      <c r="G17">
+        <v>167</v>
+      </c>
+      <c r="G17" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" t="s">
+        <v>187</v>
+      </c>
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="H17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="J17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="B18">
         <v>2021</v>
@@ -5111,24 +5726,27 @@
         <v>12344.44</v>
       </c>
       <c r="D18" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E18" s="2">
         <v>44285</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
-      </c>
-      <c r="G18">
+        <v>174</v>
+      </c>
+      <c r="H18" t="s">
+        <v>187</v>
+      </c>
+      <c r="I18">
         <v>2</v>
       </c>
-      <c r="H18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="J18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="B19">
         <v>2021</v>
@@ -5137,24 +5755,27 @@
         <v>23323</v>
       </c>
       <c r="D19" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E19" s="2">
         <v>44281</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
-      </c>
-      <c r="G19">
+        <v>267</v>
+      </c>
+      <c r="H19" t="s">
+        <v>189</v>
+      </c>
+      <c r="I19">
         <v>2</v>
       </c>
-      <c r="H19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="J19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="B20">
         <v>2021</v>
@@ -5163,7 +5784,7 @@
         <v>143670.95</v>
       </c>
       <c r="D20" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E20" s="2">
         <v>44286</v>
@@ -5171,16 +5792,19 @@
       <c r="F20" t="s">
         <v>171</v>
       </c>
-      <c r="G20">
+      <c r="H20" t="s">
+        <v>192</v>
+      </c>
+      <c r="I20">
         <v>2</v>
       </c>
-      <c r="H20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="B21">
         <v>2021</v>
@@ -5189,24 +5813,27 @@
         <v>15563.96</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E21" s="2">
         <v>44306</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
-      </c>
-      <c r="G21">
+        <v>176</v>
+      </c>
+      <c r="H21" t="s">
+        <v>187</v>
+      </c>
+      <c r="I21">
         <v>2</v>
       </c>
-      <c r="H21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="J21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="B22">
         <v>2021</v>
@@ -5215,24 +5842,27 @@
         <v>42997.07</v>
       </c>
       <c r="D22" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E22" s="2">
         <v>44299</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
-      </c>
-      <c r="G22">
+        <v>176</v>
+      </c>
+      <c r="H22" t="s">
+        <v>191</v>
+      </c>
+      <c r="I22">
         <v>2</v>
       </c>
-      <c r="H22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="J22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="B23">
         <v>2021</v>
@@ -5241,24 +5871,27 @@
         <v>72038.67999999999</v>
       </c>
       <c r="D23" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E23" s="2">
         <v>44314</v>
       </c>
       <c r="F23" t="s">
-        <v>165</v>
-      </c>
-      <c r="G23">
+        <v>172</v>
+      </c>
+      <c r="H23" t="s">
+        <v>186</v>
+      </c>
+      <c r="I23">
         <v>2</v>
       </c>
-      <c r="H23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="B24">
         <v>2021</v>
@@ -5267,24 +5900,27 @@
         <v>51618.2</v>
       </c>
       <c r="D24" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E24" s="2">
         <v>44315</v>
       </c>
       <c r="F24" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24">
+        <v>169</v>
+      </c>
+      <c r="H24" t="s">
+        <v>191</v>
+      </c>
+      <c r="I24">
         <v>2</v>
       </c>
-      <c r="H24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="J24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="B25">
         <v>2021</v>
@@ -5293,24 +5929,27 @@
         <v>118122.86</v>
       </c>
       <c r="D25" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E25" s="2">
         <v>44315</v>
       </c>
       <c r="F25" t="s">
-        <v>167</v>
-      </c>
-      <c r="G25">
+        <v>171</v>
+      </c>
+      <c r="H25" t="s">
+        <v>188</v>
+      </c>
+      <c r="I25">
         <v>2</v>
       </c>
-      <c r="H25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="J25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="B26">
         <v>2021</v>
@@ -5319,24 +5958,27 @@
         <v>101094.66</v>
       </c>
       <c r="D26" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E26" s="2">
         <v>44314</v>
       </c>
       <c r="F26" t="s">
-        <v>167</v>
-      </c>
-      <c r="G26">
+        <v>171</v>
+      </c>
+      <c r="H26" t="s">
+        <v>188</v>
+      </c>
+      <c r="I26">
         <v>2</v>
       </c>
-      <c r="H26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="B27">
         <v>2021</v>
@@ -5345,24 +5987,27 @@
         <v>15511.36</v>
       </c>
       <c r="D27" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E27" s="2">
         <v>44326</v>
       </c>
       <c r="F27" t="s">
-        <v>166</v>
-      </c>
-      <c r="G27">
+        <v>168</v>
+      </c>
+      <c r="H27" t="s">
+        <v>187</v>
+      </c>
+      <c r="I27">
         <v>2</v>
       </c>
-      <c r="H27" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="B28">
         <v>2021</v>
@@ -5371,24 +6016,27 @@
         <v>144961.24</v>
       </c>
       <c r="D28" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E28" s="2">
         <v>44315</v>
       </c>
       <c r="F28" t="s">
-        <v>171</v>
-      </c>
-      <c r="G28">
+        <v>176</v>
+      </c>
+      <c r="H28" t="s">
+        <v>192</v>
+      </c>
+      <c r="I28">
         <v>2</v>
       </c>
-      <c r="H28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="B29">
         <v>2021</v>
@@ -5397,24 +6045,27 @@
         <v>19589.49</v>
       </c>
       <c r="D29" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E29" s="2">
         <v>44336</v>
       </c>
       <c r="F29" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29">
+        <v>176</v>
+      </c>
+      <c r="H29" t="s">
+        <v>187</v>
+      </c>
+      <c r="I29">
         <v>2</v>
       </c>
-      <c r="H29" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="B30">
         <v>2021</v>
@@ -5423,7 +6074,7 @@
         <v>98778.67</v>
       </c>
       <c r="D30" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E30" s="2">
         <v>44376</v>
@@ -5431,16 +6082,19 @@
       <c r="F30" t="s">
         <v>169</v>
       </c>
-      <c r="G30">
+      <c r="H30" t="s">
+        <v>190</v>
+      </c>
+      <c r="I30">
         <v>2</v>
       </c>
-      <c r="H30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>2021</v>
@@ -5449,24 +6103,30 @@
         <v>78696</v>
       </c>
       <c r="D31" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="E31" s="2">
         <v>44371</v>
       </c>
       <c r="F31" t="s">
-        <v>165</v>
-      </c>
-      <c r="G31">
+        <v>171</v>
+      </c>
+      <c r="G31" t="s">
+        <v>183</v>
+      </c>
+      <c r="H31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I31">
         <v>2</v>
       </c>
-      <c r="H31" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="B32">
         <v>2021</v>
@@ -5475,18 +6135,24 @@
         <v>426000</v>
       </c>
       <c r="D32" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="E32" s="2">
         <v>44374</v>
       </c>
-      <c r="G32">
+      <c r="F32" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" t="s">
+        <v>182</v>
+      </c>
+      <c r="I32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="B33">
         <v>2021</v>
@@ -5495,7 +6161,7 @@
         <v>96164</v>
       </c>
       <c r="D33" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="E33" s="2">
         <v>44438</v>
@@ -5503,16 +6169,19 @@
       <c r="F33" t="s">
         <v>169</v>
       </c>
-      <c r="G33">
+      <c r="H33" t="s">
+        <v>190</v>
+      </c>
+      <c r="I33">
         <v>2</v>
       </c>
-      <c r="H33" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B34">
         <v>2021</v>
@@ -5521,24 +6190,27 @@
         <v>123014.81</v>
       </c>
       <c r="D34" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E34" s="2">
         <v>44518</v>
       </c>
       <c r="F34" t="s">
-        <v>173</v>
-      </c>
-      <c r="G34">
+        <v>167</v>
+      </c>
+      <c r="H34" t="s">
+        <v>194</v>
+      </c>
+      <c r="I34">
         <v>2</v>
       </c>
-      <c r="H34" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="J34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="B35">
         <v>2021</v>
@@ -5547,24 +6219,27 @@
         <v>97596.27</v>
       </c>
       <c r="D35" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="E35" s="2">
         <v>44515</v>
       </c>
       <c r="F35" t="s">
-        <v>169</v>
-      </c>
-      <c r="G35">
+        <v>167</v>
+      </c>
+      <c r="H35" t="s">
+        <v>190</v>
+      </c>
+      <c r="I35">
         <v>2</v>
       </c>
-      <c r="H35" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="J35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B36">
         <v>2021</v>
@@ -5573,24 +6248,27 @@
         <v>77675.48</v>
       </c>
       <c r="D36" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="E36" s="2">
         <v>44498</v>
       </c>
       <c r="F36" t="s">
-        <v>165</v>
-      </c>
-      <c r="G36">
+        <v>171</v>
+      </c>
+      <c r="H36" t="s">
+        <v>186</v>
+      </c>
+      <c r="I36">
         <v>2</v>
       </c>
-      <c r="H36" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="J36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -5599,24 +6277,27 @@
         <v>137845</v>
       </c>
       <c r="D37" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E37" s="2">
         <v>44448</v>
       </c>
       <c r="F37" t="s">
-        <v>173</v>
-      </c>
-      <c r="G37">
+        <v>172</v>
+      </c>
+      <c r="H37" t="s">
+        <v>194</v>
+      </c>
+      <c r="I37">
         <v>2</v>
       </c>
-      <c r="H37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="J37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="B38">
         <v>2021</v>
@@ -5625,18 +6306,21 @@
         <v>1724952</v>
       </c>
       <c r="D38" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="E38" s="2">
         <v>44494</v>
       </c>
-      <c r="G38">
+      <c r="F38" t="s">
+        <v>172</v>
+      </c>
+      <c r="I38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="B39">
         <v>2021</v>
@@ -5645,24 +6329,27 @@
         <v>156000</v>
       </c>
       <c r="D39" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="E39" s="2">
         <v>44466</v>
       </c>
       <c r="F39" t="s">
-        <v>171</v>
-      </c>
-      <c r="G39">
+        <v>268</v>
+      </c>
+      <c r="H39" t="s">
+        <v>192</v>
+      </c>
+      <c r="I39">
         <v>2</v>
       </c>
-      <c r="H39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="J39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="B40">
         <v>2022</v>
@@ -5671,18 +6358,21 @@
         <v>1783320</v>
       </c>
       <c r="D40" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="E40" s="2">
         <v>44557</v>
       </c>
-      <c r="G40">
+      <c r="F40" t="s">
+        <v>171</v>
+      </c>
+      <c r="I40">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -5691,24 +6381,27 @@
         <v>195393.13</v>
       </c>
       <c r="D41" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E41" s="2">
         <v>44587</v>
       </c>
       <c r="F41" t="s">
-        <v>246</v>
-      </c>
-      <c r="G41">
+        <v>176</v>
+      </c>
+      <c r="H41" t="s">
+        <v>271</v>
+      </c>
+      <c r="I41">
         <v>2</v>
       </c>
-      <c r="H41" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="J41" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="B42">
         <v>2022</v>
@@ -5717,24 +6410,27 @@
         <v>32379.56</v>
       </c>
       <c r="D42" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E42" s="2">
         <v>44599</v>
       </c>
       <c r="F42" t="s">
-        <v>168</v>
-      </c>
-      <c r="G42">
+        <v>177</v>
+      </c>
+      <c r="H42" t="s">
+        <v>189</v>
+      </c>
+      <c r="I42">
         <v>2</v>
       </c>
-      <c r="H42" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="J42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="B43">
         <v>2022</v>
@@ -5743,18 +6439,24 @@
         <v>2206300</v>
       </c>
       <c r="D43" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E43" s="2">
         <v>44599</v>
       </c>
-      <c r="G43">
+      <c r="F43" t="s">
+        <v>172</v>
+      </c>
+      <c r="G43" t="s">
+        <v>182</v>
+      </c>
+      <c r="I43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="B44">
         <v>2022</v>
@@ -5763,24 +6465,27 @@
         <v>59444.88</v>
       </c>
       <c r="D44" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E44" s="2">
         <v>44600</v>
       </c>
       <c r="F44" t="s">
-        <v>170</v>
-      </c>
-      <c r="G44">
+        <v>169</v>
+      </c>
+      <c r="H44" t="s">
+        <v>191</v>
+      </c>
+      <c r="I44">
         <v>2</v>
       </c>
-      <c r="H44" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="J44" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B45">
         <v>2022</v>
@@ -5789,24 +6494,27 @@
         <v>131316</v>
       </c>
       <c r="D45" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E45" s="2">
         <v>44609</v>
       </c>
       <c r="F45" t="s">
-        <v>173</v>
-      </c>
-      <c r="G45">
+        <v>171</v>
+      </c>
+      <c r="H45" t="s">
+        <v>194</v>
+      </c>
+      <c r="I45">
         <v>2</v>
       </c>
-      <c r="H45" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="J45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="B46">
         <v>2022</v>
@@ -5815,18 +6523,21 @@
         <v>284992.08</v>
       </c>
       <c r="D46" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E46" s="2">
         <v>44615</v>
       </c>
-      <c r="G46">
+      <c r="F46" t="s">
+        <v>169</v>
+      </c>
+      <c r="I46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B47">
         <v>2022</v>
@@ -5835,24 +6546,27 @@
         <v>154056.97</v>
       </c>
       <c r="D47" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E47" s="2">
         <v>44620</v>
       </c>
       <c r="F47" t="s">
-        <v>171</v>
-      </c>
-      <c r="G47">
+        <v>169</v>
+      </c>
+      <c r="H47" t="s">
+        <v>192</v>
+      </c>
+      <c r="I47">
         <v>2</v>
       </c>
-      <c r="H47" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="J47" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="B48">
         <v>2022</v>
@@ -5861,18 +6575,21 @@
         <v>229700</v>
       </c>
       <c r="D48" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E48" s="2">
         <v>44630</v>
       </c>
-      <c r="G48">
+      <c r="F48" t="s">
+        <v>174</v>
+      </c>
+      <c r="I48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="B49">
         <v>2022</v>
@@ -5881,24 +6598,27 @@
         <v>50075</v>
       </c>
       <c r="D49" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E49" s="2">
         <v>44645</v>
       </c>
       <c r="F49" t="s">
-        <v>170</v>
-      </c>
-      <c r="G49">
+        <v>177</v>
+      </c>
+      <c r="H49" t="s">
+        <v>191</v>
+      </c>
+      <c r="I49">
         <v>2</v>
       </c>
-      <c r="H49" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="J49" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="B50">
         <v>2022</v>
@@ -5907,24 +6627,27 @@
         <v>95656.64999999999</v>
       </c>
       <c r="D50" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E50" s="2">
         <v>44649</v>
       </c>
       <c r="F50" t="s">
-        <v>169</v>
-      </c>
-      <c r="G50">
+        <v>173</v>
+      </c>
+      <c r="H50" t="s">
+        <v>190</v>
+      </c>
+      <c r="I50">
         <v>2</v>
       </c>
-      <c r="H50" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="J50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="B51">
         <v>2022</v>
@@ -5933,18 +6656,21 @@
         <v>2164926</v>
       </c>
       <c r="D51" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="E51" s="2">
         <v>44656</v>
       </c>
-      <c r="G51">
+      <c r="F51" t="s">
+        <v>174</v>
+      </c>
+      <c r="I51">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="B52">
         <v>2022</v>
@@ -5953,24 +6679,27 @@
         <v>80534</v>
       </c>
       <c r="D52" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="E52" s="2">
         <v>44681</v>
       </c>
       <c r="F52" t="s">
-        <v>169</v>
-      </c>
-      <c r="G52">
+        <v>177</v>
+      </c>
+      <c r="H52" t="s">
+        <v>190</v>
+      </c>
+      <c r="I52">
         <v>2</v>
       </c>
-      <c r="H52" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="J52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="B53">
         <v>2022</v>
@@ -5979,24 +6708,27 @@
         <v>85765.3</v>
       </c>
       <c r="D53" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E53" s="2">
         <v>44736</v>
       </c>
       <c r="F53" t="s">
-        <v>169</v>
-      </c>
-      <c r="G53">
+        <v>173</v>
+      </c>
+      <c r="H53" t="s">
+        <v>190</v>
+      </c>
+      <c r="I53">
         <v>2</v>
       </c>
-      <c r="H53" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="J53" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>2022</v>
@@ -6005,24 +6737,27 @@
         <v>141922</v>
       </c>
       <c r="D54" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="E54" s="2">
         <v>44742</v>
       </c>
       <c r="F54" t="s">
-        <v>171</v>
-      </c>
-      <c r="G54">
+        <v>174</v>
+      </c>
+      <c r="H54" t="s">
+        <v>192</v>
+      </c>
+      <c r="I54">
         <v>2</v>
       </c>
-      <c r="H54" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="J54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="B55">
         <v>2022</v>
@@ -6031,24 +6766,27 @@
         <v>142246</v>
       </c>
       <c r="D55" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="E55" s="2">
         <v>44783</v>
       </c>
       <c r="F55" t="s">
-        <v>171</v>
-      </c>
-      <c r="G55">
+        <v>174</v>
+      </c>
+      <c r="H55" t="s">
+        <v>192</v>
+      </c>
+      <c r="I55">
         <v>2</v>
       </c>
-      <c r="H55" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="J55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="B56">
         <v>2022</v>
@@ -6057,18 +6795,21 @@
         <v>564456</v>
       </c>
       <c r="D56" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="E56" s="2">
         <v>44834</v>
       </c>
-      <c r="G56">
+      <c r="F56" t="s">
+        <v>172</v>
+      </c>
+      <c r="I56">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="B57">
         <v>2022</v>
@@ -6077,24 +6818,27 @@
         <v>71046</v>
       </c>
       <c r="D57" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="E57" s="2">
         <v>44865</v>
       </c>
       <c r="F57" t="s">
-        <v>165</v>
-      </c>
-      <c r="G57">
+        <v>169</v>
+      </c>
+      <c r="H57" t="s">
+        <v>186</v>
+      </c>
+      <c r="I57">
         <v>2</v>
       </c>
-      <c r="H57" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="J57" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="B58">
         <v>2022</v>
@@ -6103,24 +6847,27 @@
         <v>42583</v>
       </c>
       <c r="D58" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="E58" s="2">
         <v>44872</v>
       </c>
       <c r="F58" t="s">
-        <v>170</v>
-      </c>
-      <c r="G58">
+        <v>175</v>
+      </c>
+      <c r="H58" t="s">
+        <v>191</v>
+      </c>
+      <c r="I58">
         <v>2</v>
       </c>
-      <c r="H58" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="J58" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="B59">
         <v>2022</v>
@@ -6129,24 +6876,30 @@
         <v>101508</v>
       </c>
       <c r="D59" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="E59" s="2">
         <v>44875</v>
       </c>
       <c r="F59" t="s">
-        <v>167</v>
-      </c>
-      <c r="G59">
+        <v>169</v>
+      </c>
+      <c r="G59" t="s">
+        <v>184</v>
+      </c>
+      <c r="H59" t="s">
+        <v>188</v>
+      </c>
+      <c r="I59">
         <v>2</v>
       </c>
-      <c r="H59" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="J59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="B60">
         <v>2022</v>
@@ -6155,18 +6908,21 @@
         <v>289659</v>
       </c>
       <c r="D60" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E60" s="2">
         <v>44890</v>
       </c>
-      <c r="G60">
+      <c r="F60" t="s">
+        <v>169</v>
+      </c>
+      <c r="I60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B61">
         <v>2022</v>
@@ -6175,24 +6931,27 @@
         <v>186313</v>
       </c>
       <c r="D61" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E61" s="2">
         <v>44895</v>
       </c>
       <c r="F61" t="s">
-        <v>246</v>
-      </c>
-      <c r="G61">
+        <v>171</v>
+      </c>
+      <c r="H61" t="s">
+        <v>271</v>
+      </c>
+      <c r="I61">
         <v>2</v>
       </c>
-      <c r="H61" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="J61" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B62">
         <v>2023</v>
@@ -6201,24 +6960,27 @@
         <v>150188</v>
       </c>
       <c r="D62" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="E62" s="2">
         <v>44939</v>
       </c>
       <c r="F62" t="s">
-        <v>171</v>
-      </c>
-      <c r="G62">
+        <v>169</v>
+      </c>
+      <c r="H62" t="s">
+        <v>192</v>
+      </c>
+      <c r="I62">
         <v>2</v>
       </c>
-      <c r="H62" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="J62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="B63">
         <v>2023</v>
@@ -6227,24 +6989,27 @@
         <v>199392.4</v>
       </c>
       <c r="D63" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="E63" s="2">
         <v>44950</v>
       </c>
       <c r="F63" t="s">
-        <v>246</v>
-      </c>
-      <c r="G63">
+        <v>175</v>
+      </c>
+      <c r="H63" t="s">
+        <v>271</v>
+      </c>
+      <c r="I63">
         <v>2</v>
       </c>
-      <c r="H63" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="J63" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="B64">
         <v>2023</v>
@@ -6253,18 +7018,21 @@
         <v>461390</v>
       </c>
       <c r="D64" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="E64" s="2">
         <v>44952</v>
       </c>
-      <c r="G64">
+      <c r="F64" t="s">
+        <v>174</v>
+      </c>
+      <c r="I64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="B65">
         <v>2023</v>
@@ -6273,24 +7041,27 @@
         <v>179010</v>
       </c>
       <c r="D65" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="E65" s="2">
         <v>44972</v>
       </c>
       <c r="F65" t="s">
-        <v>172</v>
-      </c>
-      <c r="G65">
+        <v>169</v>
+      </c>
+      <c r="H65" t="s">
+        <v>193</v>
+      </c>
+      <c r="I65">
         <v>2</v>
       </c>
-      <c r="H65" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="J65" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="B66">
         <v>2023</v>
@@ -6299,18 +7070,21 @@
         <v>207498.12</v>
       </c>
       <c r="D66" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="E66" s="2">
         <v>44978</v>
       </c>
-      <c r="G66">
+      <c r="F66" t="s">
+        <v>174</v>
+      </c>
+      <c r="I66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="B67">
         <v>2023</v>
@@ -6319,24 +7093,27 @@
         <v>99798</v>
       </c>
       <c r="D67" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="E67" s="2">
         <v>44979</v>
       </c>
       <c r="F67" t="s">
-        <v>169</v>
-      </c>
-      <c r="G67">
+        <v>173</v>
+      </c>
+      <c r="H67" t="s">
+        <v>190</v>
+      </c>
+      <c r="I67">
         <v>2</v>
       </c>
-      <c r="H67" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="J67" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="B68">
         <v>2023</v>
@@ -6345,18 +7122,21 @@
         <v>303998.52</v>
       </c>
       <c r="D68" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E68" s="2">
         <v>44984</v>
       </c>
-      <c r="G68">
+      <c r="F68" t="s">
+        <v>169</v>
+      </c>
+      <c r="I68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="B69">
         <v>2023</v>
@@ -6365,24 +7145,27 @@
         <v>74171</v>
       </c>
       <c r="D69" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E69" s="2">
         <v>45015</v>
       </c>
       <c r="F69" t="s">
-        <v>165</v>
-      </c>
-      <c r="G69">
+        <v>169</v>
+      </c>
+      <c r="H69" t="s">
+        <v>186</v>
+      </c>
+      <c r="I69">
         <v>2</v>
       </c>
-      <c r="H69" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="J69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="B70">
         <v>2023</v>
@@ -6391,24 +7174,27 @@
         <v>71414.8</v>
       </c>
       <c r="D70" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E70" s="2">
         <v>45029</v>
       </c>
       <c r="F70" t="s">
-        <v>165</v>
-      </c>
-      <c r="G70">
+        <v>175</v>
+      </c>
+      <c r="H70" t="s">
+        <v>186</v>
+      </c>
+      <c r="I70">
         <v>2</v>
       </c>
-      <c r="H70" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="J70" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="B71">
         <v>2023</v>
@@ -6417,24 +7203,27 @@
         <v>140432</v>
       </c>
       <c r="D71" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E71" s="2">
         <v>45061</v>
       </c>
       <c r="F71" t="s">
-        <v>171</v>
-      </c>
-      <c r="G71">
+        <v>179</v>
+      </c>
+      <c r="H71" t="s">
+        <v>192</v>
+      </c>
+      <c r="I71">
         <v>2</v>
       </c>
-      <c r="H71" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="J71" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="B72">
         <v>2023</v>
@@ -6443,19 +7232,22 @@
         <v>104340</v>
       </c>
       <c r="D72" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="E72" s="2">
         <v>45070</v>
       </c>
       <c r="F72" t="s">
-        <v>167</v>
-      </c>
-      <c r="G72">
+        <v>173</v>
+      </c>
+      <c r="H72" t="s">
+        <v>188</v>
+      </c>
+      <c r="I72">
         <v>2</v>
       </c>
-      <c r="H72" t="s">
-        <v>167</v>
+      <c r="J72" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
